--- a/IE407-Q4.xlsx
+++ b/IE407-Q4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alp\ie\IE407-Term-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eheng\OneDrive\Documents\GitHub\IE407-Term-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53503B-56F2-4B04-966D-12C68521D0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E86565B-5044-4390-B85D-37E4F75891D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" activeTab="1" xr2:uid="{29C75357-6D86-4F34-87D3-5ABA805A4EC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{29C75357-6D86-4F34-87D3-5ABA805A4EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1 Sensitivity" sheetId="2" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <definedName name="solver_num" localSheetId="1" hidden="1">10</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Sayfa1!$B$55</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
@@ -64,7 +65,7 @@
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
   </definedNames>
@@ -4110,16 +4111,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="OpenSolver1">
+        <xdr:cNvPr id="2" name="OpenSolver1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115D1A1D-1899-4CA5-A30C-7D594CE8216A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4ADB8D2-F83F-491F-8874-E16C9FA5C320}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4127,8 +4128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24281476" y="1005840"/>
-          <a:ext cx="4172989" cy="4987637"/>
+          <a:off x="22258020" y="998220"/>
+          <a:ext cx="3825241" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4179,7 +4180,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -4191,23 +4192,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>731519</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="OpenSolver2">
+        <xdr:cNvPr id="3" name="OpenSolver2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731A2227-7CFB-48E9-99CA-7A03CE0DACF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E6380D-7381-4F0C-80DB-1EFAB09377C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4215,8 +4216,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29252487" y="1005840"/>
-          <a:ext cx="4081550" cy="4987637"/>
+          <a:off x="26814779" y="998220"/>
+          <a:ext cx="3741421" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4267,7 +4268,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -4279,23 +4280,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>678179</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="OpenSolver3">
+        <xdr:cNvPr id="4" name="OpenSolver3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEA3C7F-1716-4D4E-9F8A-35149CF55748}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9F13AA-82BF-4413-93EF-243ECBAEF64E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,8 +4304,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34073871" y="1005840"/>
-          <a:ext cx="3990109" cy="4987637"/>
+          <a:off x="31234379" y="998220"/>
+          <a:ext cx="3657600" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4355,7 +4356,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -4368,7 +4369,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4376,14 +4377,14 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="OpenSolver4">
+        <xdr:cNvPr id="5" name="OpenSolver4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A10BD0-0102-45D3-AD49-842703ED15BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8344392-6FDB-4857-83E2-782686A205D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4391,8 +4392,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38803811" y="1005840"/>
-          <a:ext cx="3990110" cy="4987637"/>
+          <a:off x="35570161" y="998220"/>
+          <a:ext cx="3657600" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4443,7 +4444,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -4458,7 +4459,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -4468,10 +4469,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="OpenSolver5">
+        <xdr:cNvPr id="6" name="OpenSolver5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4C048C-233E-451A-8080-5D40D7B505C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78CEF81-BF27-4762-859E-17F4A97E24B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4479,8 +4480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="764771" y="10806546"/>
-          <a:ext cx="856211" cy="207818"/>
+          <a:off x="701040" y="10728960"/>
+          <a:ext cx="784860" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4525,7 +4526,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -4538,22 +4539,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>233764</xdr:colOff>
+      <xdr:colOff>233995</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="OpenSolver6">
+        <xdr:cNvPr id="7" name="OpenSolver6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B123556-B5DA-4204-AC8A-5A473734D376}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884EAA89-FADE-43AE-9138-5A4D65937818}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4561,7 +4562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="749300" y="10731500"/>
+          <a:off x="685800" y="10655300"/>
           <a:ext cx="249235" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4616,7 +4617,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="tr-TR" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4639,14 +4640,14 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="OpenSolver7">
+        <xdr:cNvPr id="8" name="OpenSolver7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF754C41-DFEF-4A6C-8255-8AC10AD2F4E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8054B9E6-5663-48F6-AE71-2F4A9B74F8E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4654,8 +4655,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1620982" y="12419215"/>
-          <a:ext cx="822960" cy="4987636"/>
+          <a:off x="1485900" y="12329160"/>
+          <a:ext cx="754380" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4700,7 +4701,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="0000FF"/>
             </a:solidFill>
@@ -4721,14 +4722,14 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="OpenSolver8">
+        <xdr:cNvPr id="9" name="OpenSolver8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D19091-AA4C-4305-90C2-B456F150D17E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C640A41-1ED6-4CCB-94FF-ADEC94F6B26A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4736,8 +4737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3391593" y="12419215"/>
-          <a:ext cx="673331" cy="4987636"/>
+          <a:off x="3108960" y="12329160"/>
+          <a:ext cx="617220" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4783,7 +4784,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
@@ -4800,32 +4801,32 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="OpenSolver9">
+        <xdr:cNvPr id="10" name="OpenSolver9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10639394-8EAB-4158-A8E7-F5BF3078ADEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D3CD84-FBC1-4681-A8D2-68A408A40957}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
-          <a:endCxn id="47" idx="1"/>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2443942" y="14913033"/>
-          <a:ext cx="947651" cy="0"/>
+          <a:off x="2240280" y="14805661"/>
+          <a:ext cx="868680" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4859,22 +4860,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>283325</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>172257</xdr:rowOff>
+      <xdr:rowOff>170181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>664325</xdr:colOff>
+      <xdr:colOff>624840</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>27247</xdr:rowOff>
+      <xdr:rowOff>27941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="OpenSolver10">
+        <xdr:cNvPr id="11" name="OpenSolver10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085A9D10-4269-4633-9967-C992E5671D12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AE76F4-3693-42F7-98B9-3C2A8926641D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,7 +4883,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2727267" y="14786032"/>
+          <a:off x="2484120" y="14678661"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4937,7 +4938,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4954,14 +4955,14 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="OpenSolver11">
+        <xdr:cNvPr id="12" name="OpenSolver11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FA50A9-CDA7-4BC6-9918-03C005281A0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CD13D4-2BD5-4F6A-8AF5-EEE20EBE130F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4969,8 +4970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5569527" y="12419215"/>
-          <a:ext cx="673331" cy="4987636"/>
+          <a:off x="5105400" y="12329160"/>
+          <a:ext cx="617220" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5015,7 +5016,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="008000"/>
             </a:solidFill>
@@ -5028,22 +5029,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="OpenSolver12">
+        <xdr:cNvPr id="13" name="OpenSolver12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F34006E-6F34-4F30-B048-7F575680E19F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35153AB3-0FC7-4AB4-8C69-F04BB8A77318}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5051,8 +5052,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7148946" y="12419215"/>
-          <a:ext cx="673331" cy="4987636"/>
+          <a:off x="6553200" y="12329160"/>
+          <a:ext cx="617220" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5098,7 +5099,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="008000"/>
               </a:solidFill>
@@ -5115,32 +5116,32 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="OpenSolver13">
+        <xdr:cNvPr id="14" name="OpenSolver13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FFA04D-BD42-436B-B9E1-11733681FAF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B269DAE-D6D4-4A9B-9A53-078CD242E721}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="3"/>
-          <a:endCxn id="51" idx="1"/>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6242858" y="14913033"/>
-          <a:ext cx="906088" cy="0"/>
+          <a:off x="5722620" y="14805661"/>
+          <a:ext cx="830580" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5174,22 +5175,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>262544</xdr:colOff>
+      <xdr:colOff>224790</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>172257</xdr:rowOff>
+      <xdr:rowOff>170181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>643544</xdr:colOff>
+      <xdr:colOff>605790</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>27247</xdr:rowOff>
+      <xdr:rowOff>27941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="OpenSolver14">
+        <xdr:cNvPr id="15" name="OpenSolver14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D38FD6-FB4E-44DF-A594-BB30A91B6C73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F1E9CD-B4E7-4F2D-985E-E3754055981B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5197,7 +5198,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6505402" y="14786032"/>
+          <a:off x="5947410" y="14678661"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5252,7 +5253,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5269,14 +5270,14 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="OpenSolver15">
+        <xdr:cNvPr id="16" name="OpenSolver15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1F7540-7625-459E-B594-0302E843A508}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DC7754-A8BD-4B5C-976D-1BE13FC599C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5284,8 +5285,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9168938" y="12419215"/>
-          <a:ext cx="673331" cy="4987636"/>
+          <a:off x="8404860" y="12329160"/>
+          <a:ext cx="617220" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5330,7 +5331,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="9900CC"/>
             </a:solidFill>
@@ -5351,14 +5352,14 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="OpenSolver16">
+        <xdr:cNvPr id="17" name="OpenSolver16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBB90DF-8117-4EEE-B003-06EAA813F334}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774C6688-1826-4E59-85E6-8F1ED731AF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5366,8 +5367,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10515600" y="12419215"/>
-          <a:ext cx="673331" cy="4987636"/>
+          <a:off x="9639300" y="12329160"/>
+          <a:ext cx="617220" cy="4953001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5413,7 +5414,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="9900CC"/>
               </a:solidFill>
@@ -5430,32 +5431,32 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="OpenSolver17">
+        <xdr:cNvPr id="18" name="OpenSolver17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6B28F9-7EE5-4C38-A759-04199FA1F148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1C233D-F7D0-4417-9AD9-3F2C8324F401}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="3"/>
-          <a:endCxn id="55" idx="1"/>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9842269" y="14913033"/>
-          <a:ext cx="673331" cy="0"/>
+          <a:off x="9022080" y="14805661"/>
+          <a:ext cx="617220" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5489,22 +5490,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>146166</xdr:colOff>
+      <xdr:colOff>118110</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>172257</xdr:rowOff>
+      <xdr:rowOff>170181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>527166</xdr:colOff>
+      <xdr:colOff>499110</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>27247</xdr:rowOff>
+      <xdr:rowOff>27941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="OpenSolver18">
+        <xdr:cNvPr id="19" name="OpenSolver18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041C6428-407D-41DB-ADEE-2F19454E07BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCAB3F0-BECD-4CF7-AD43-33559AD0985F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5512,7 +5513,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9988435" y="14786032"/>
+          <a:off x="9140190" y="14678661"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5567,7 +5568,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5575,23 +5576,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>748145</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="OpenSolver19">
+        <xdr:cNvPr id="20" name="OpenSolver19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C0B2E0-0A6A-4AA7-A074-86FDAE808241}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A58AFC1-7B62-41BA-B192-DA9A43F70CF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5599,8 +5600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12602094" y="12419215"/>
-          <a:ext cx="673331" cy="1197033"/>
+          <a:off x="11551920" y="12329160"/>
+          <a:ext cx="617219" cy="1188720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5645,7 +5646,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="800000"/>
             </a:solidFill>
@@ -5664,16 +5665,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="OpenSolver20">
+        <xdr:cNvPr id="21" name="OpenSolver20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AB39D6-78D8-43B4-9DE3-BDE6892B5022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EF5240-663B-43D6-97D8-E718C554E63B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5681,8 +5682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13940444" y="12419215"/>
-          <a:ext cx="673331" cy="1197033"/>
+          <a:off x="12778740" y="12329160"/>
+          <a:ext cx="617221" cy="1188720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5728,7 +5729,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="800000"/>
               </a:solidFill>
@@ -5742,35 +5743,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="OpenSolver21">
+        <xdr:cNvPr id="22" name="OpenSolver21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA737738-C6A4-4CA9-9D0F-3002522EAF9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046FF96E-97F5-4249-BAC1-8B41D083B8CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
-          <a:endCxn id="59" idx="1"/>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13275425" y="13017732"/>
-          <a:ext cx="665019" cy="0"/>
+          <a:off x="12169139" y="12923520"/>
+          <a:ext cx="609601" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5804,22 +5805,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>142010</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>72508</xdr:rowOff>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523010</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>127002</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="OpenSolver22">
+        <xdr:cNvPr id="23" name="OpenSolver22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FC6EE7-0422-49E3-9B31-D9BA5E6B12A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3591D113-7125-4905-98CC-8D221D4DF4DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5827,7 +5828,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13417435" y="12890733"/>
+          <a:off x="12283440" y="12796520"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5882,7 +5883,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5898,15 +5899,15 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>198119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="OpenSolver23">
+        <xdr:cNvPr id="24" name="OpenSolver23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C5AE8B-048A-4735-93F6-045AD0CF206B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42858C9-ECAF-4FC3-87F0-0682F12D20CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5914,8 +5915,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15952124" y="12419215"/>
-          <a:ext cx="673331" cy="798022"/>
+          <a:off x="14622780" y="12329160"/>
+          <a:ext cx="617220" cy="792479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5960,7 +5961,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="00CC33"/>
             </a:solidFill>
@@ -5980,15 +5981,15 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>198119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="OpenSolver24">
+        <xdr:cNvPr id="25" name="OpenSolver24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1F54B7-4BC9-4EC0-888D-82245ADE1FA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B07CEC-56F5-4C12-9F43-6D39D10E078D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5996,8 +5997,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17373600" y="12419215"/>
-          <a:ext cx="673331" cy="798022"/>
+          <a:off x="15925800" y="12329160"/>
+          <a:ext cx="617220" cy="792479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6043,7 +6044,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="00CC33"/>
               </a:solidFill>
@@ -6060,32 +6061,32 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="OpenSolver25">
+        <xdr:cNvPr id="26" name="OpenSolver25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6777560-C39D-4E35-A369-71005D0C511C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4D19BC-78FE-47CC-BD48-863577023436}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="3"/>
-          <a:endCxn id="63" idx="1"/>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16625455" y="12818226"/>
-          <a:ext cx="748145" cy="0"/>
+          <a:off x="15240000" y="12725400"/>
+          <a:ext cx="685800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6119,22 +6120,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>183572</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>72506</xdr:rowOff>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>564572</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="OpenSolver26">
+        <xdr:cNvPr id="27" name="OpenSolver26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9BD56D-82FC-49A5-9D15-E8E701490DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8AE7730-51C6-4ADE-9B82-7DAAB17C4D42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6142,7 +6143,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16809027" y="12691226"/>
+          <a:off x="15392400" y="12598400"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6197,7 +6198,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6205,23 +6206,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="OpenSolver27">
+        <xdr:cNvPr id="28" name="OpenSolver27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C562C8-9DF6-4D78-BEFB-BA3F8973EDE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CE4653-4531-4249-98CE-7EF11DA375A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6229,8 +6230,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18720262" y="12419215"/>
-          <a:ext cx="4089862" cy="598516"/>
+          <a:off x="17160239" y="12329160"/>
+          <a:ext cx="3749040" cy="594360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6275,7 +6276,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF6600"/>
             </a:solidFill>
@@ -6293,17 +6294,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="OpenSolver28">
+        <xdr:cNvPr id="29" name="OpenSolver28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8864D26B-5DCA-4808-8C24-077355DE7C35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C67EAB-D846-47C3-B698-1D96B4795FD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6311,8 +6312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23483455" y="12419215"/>
-          <a:ext cx="4297680" cy="598516"/>
+          <a:off x="21526500" y="12329160"/>
+          <a:ext cx="3939539" cy="594360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6358,7 +6359,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="tr-TR" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF6600"/>
               </a:solidFill>
@@ -6372,35 +6373,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>99753</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="OpenSolver29">
+        <xdr:cNvPr id="30" name="OpenSolver29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DC55A2-A6AC-4D68-A557-FB72884D1F91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31021F7-5A19-4AEF-B399-D6B38D8AA9A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="66" idx="3"/>
-          <a:endCxn id="67" idx="1"/>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22810124" y="12718473"/>
-          <a:ext cx="673331" cy="0"/>
+          <a:off x="20909279" y="12626340"/>
+          <a:ext cx="617221" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6434,22 +6435,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>146165</xdr:colOff>
+      <xdr:colOff>118111</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>172258</xdr:rowOff>
+      <xdr:rowOff>170180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>527165</xdr:colOff>
+      <xdr:colOff>499111</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>27248</xdr:rowOff>
+      <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="OpenSolver30">
+        <xdr:cNvPr id="31" name="OpenSolver30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF1F5695-B4D7-4050-AFF9-6E538174B1A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C9C7D4-6B89-478C-ABB8-98B5C06A0FF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6457,7 +6458,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22956289" y="12591473"/>
+          <a:off x="21027391" y="12499340"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6512,7 +6513,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="tr-TR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6527,16 +6528,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="OpenSolver31">
+        <xdr:cNvPr id="32" name="OpenSolver31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C723992-FB55-43F2-B204-0C33ACF698E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAD26DF-238C-4378-B82C-003B4F76676C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6544,8 +6545,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24294176" y="1018540"/>
-          <a:ext cx="4160289" cy="4974937"/>
+          <a:off x="22270720" y="1010920"/>
+          <a:ext cx="3812541" cy="4940300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6590,7 +6591,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -6603,22 +6604,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>924</xdr:colOff>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133465</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>322166</xdr:colOff>
+      <xdr:colOff>326322</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="OpenSolver32">
+        <xdr:cNvPr id="33" name="OpenSolver32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA1702D-0553-4B7D-B7BB-C331F03DB719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9A4E30-2B29-4425-99ED-732FC89107C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6626,7 +6627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24282400" y="939800"/>
+          <a:off x="22263100" y="939800"/>
           <a:ext cx="321242" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6681,7 +6682,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="tr-TR" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -6696,22 +6697,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>12699</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="OpenSolver33">
+        <xdr:cNvPr id="34" name="OpenSolver33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3F7802-7ADC-4C0A-9583-5C878EFD48C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E51D67B-A188-40EB-95E7-5E3B041D7AB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6719,8 +6720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29265187" y="1018540"/>
-          <a:ext cx="4068850" cy="4974937"/>
+          <a:off x="26827479" y="1010920"/>
+          <a:ext cx="3728721" cy="4940300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6765,7 +6766,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -6778,22 +6779,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>793635</xdr:colOff>
+      <xdr:colOff>726440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133465</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>316855</xdr:colOff>
+      <xdr:colOff>316162</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="OpenSolver34">
+        <xdr:cNvPr id="35" name="OpenSolver34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F67D0C-3B87-4E71-91B8-6A4AE2EBC930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5160659E-FFA7-4A24-9E9B-BF68EEE2C9A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6801,7 +6802,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29248100" y="939800"/>
+          <a:off x="26809700" y="939800"/>
           <a:ext cx="321242" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6856,7 +6857,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="tr-TR" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -6871,22 +6872,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>12702</xdr:colOff>
+      <xdr:colOff>12699</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="OpenSolver35">
+        <xdr:cNvPr id="36" name="OpenSolver35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0557ED6-3CB2-4B1E-B8A5-6FB523E3CC79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B0DEEB-2A32-41CD-B273-958F842CF93E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6894,8 +6895,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34086571" y="1018540"/>
-          <a:ext cx="3977409" cy="4974937"/>
+          <a:off x="31247079" y="1010920"/>
+          <a:ext cx="3644900" cy="4940300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6940,7 +6941,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -6952,23 +6953,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>231</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133465</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>321473</xdr:colOff>
+      <xdr:colOff>316162</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="OpenSolver36">
+        <xdr:cNvPr id="37" name="OpenSolver36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5185E594-237C-4DC5-89E1-42F2B9E9FFB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C77DA59-5162-4AD5-B004-E96BC1CED593}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6976,7 +6977,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34074100" y="939800"/>
+          <a:off x="31229300" y="939800"/>
           <a:ext cx="321242" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7031,7 +7032,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="tr-TR" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7046,7 +7047,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>12701</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
@@ -7054,14 +7055,14 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="OpenSolver37">
+        <xdr:cNvPr id="38" name="OpenSolver37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD0B2A3-BA3D-4F6A-94C7-8EE14465A141}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212DB04E-47D4-4565-B9F0-8488C897B7CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7069,8 +7070,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38816511" y="1018540"/>
-          <a:ext cx="3977410" cy="4974937"/>
+          <a:off x="35582861" y="1010920"/>
+          <a:ext cx="3644900" cy="4940300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7115,7 +7116,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -7127,23 +7128,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>734522</xdr:colOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133465</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>315931</xdr:colOff>
+      <xdr:colOff>323782</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="OpenSolver38">
+        <xdr:cNvPr id="39" name="OpenSolver38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D587110C-2F44-47DA-9D42-A2C3276EC410}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE66734-E755-4EEC-B896-BE69E55474B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7151,7 +7152,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38798500" y="939800"/>
+          <a:off x="35572700" y="939800"/>
           <a:ext cx="321242" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7206,7 +7207,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="tr-TR" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7524,7 +7525,7 @@
       <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" style="56" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -7536,12 +7537,12 @@
     <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>41</v>
       </c>
@@ -7553,7 +7554,7 @@
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>1160</v>
       </c>
@@ -7565,7 +7566,7 @@
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -7609,7 +7610,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="47" t="s">
         <v>50</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="47" t="s">
         <v>51</v>
       </c>
@@ -7651,7 +7652,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="s">
         <v>52</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>53</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="s">
         <v>54</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B12" s="47" t="s">
         <v>55</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
         <v>56</v>
       </c>
@@ -7756,7 +7757,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B14" s="47" t="s">
         <v>57</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B15" s="47" t="s">
         <v>58</v>
       </c>
@@ -7798,7 +7799,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B16" s="47" t="s">
         <v>59</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="s">
         <v>60</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B18" s="47" t="s">
         <v>61</v>
       </c>
@@ -7861,7 +7862,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B19" s="47" t="s">
         <v>62</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
         <v>63</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
         <v>64</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B22" s="47" t="s">
         <v>65</v>
       </c>
@@ -7945,7 +7946,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B23" s="47" t="s">
         <v>66</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B24" s="47" t="s">
         <v>67</v>
       </c>
@@ -7987,7 +7988,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B25" s="47" t="s">
         <v>68</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B26" s="47" t="s">
         <v>69</v>
       </c>
@@ -8029,7 +8030,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="s">
         <v>70</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
         <v>71</v>
       </c>
@@ -18088,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B506" s="50" t="s">
         <v>549</v>
       </c>
@@ -18118,7 +18119,7 @@
       <c r="G507" s="46"/>
       <c r="H507" s="46"/>
     </row>
-    <row r="508" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A508" s="56" t="s">
         <v>550</v>
       </c>
@@ -18130,7 +18131,7 @@
       <c r="G508" s="46"/>
       <c r="H508" s="46"/>
     </row>
-    <row r="509" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B509" s="53" t="s">
         <v>43</v>
       </c>
@@ -31907,7 +31908,7 @@
         <v>0.70698916050000005</v>
       </c>
     </row>
-    <row r="1108" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1108" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1108" s="50" t="s">
         <v>1159</v>
       </c>
@@ -31949,11 +31950,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7930316F-CD20-49E5-A6A0-4C42FB60CBBA}">
   <dimension ref="A1:CM132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -31995,7 +31996,7 @@
     <col min="70" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:82" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:82" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -32015,7 +32016,7 @@
       <c r="R1" s="38"/>
       <c r="S1" s="38"/>
     </row>
-    <row r="2" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -32101,7 +32102,7 @@
       <c r="CB2" s="3"/>
       <c r="CC2" s="5"/>
     </row>
-    <row r="3" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -32187,7 +32188,7 @@
       <c r="CB3" s="8"/>
       <c r="CC3" s="9"/>
     </row>
-    <row r="4" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -32284,7 +32285,7 @@
       <c r="CB4" s="8"/>
       <c r="CC4" s="9"/>
     </row>
-    <row r="5" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="11" t="s">
         <v>9</v>
@@ -32492,7 +32493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B6" s="41">
         <v>1</v>
       </c>
@@ -32738,7 +32739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B7" s="41">
         <v>2</v>
       </c>
@@ -32984,7 +32985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B8" s="41">
         <v>3</v>
       </c>
@@ -33230,7 +33231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B9" s="41">
         <v>4</v>
       </c>
@@ -33476,7 +33477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B10" s="41">
         <v>5</v>
       </c>
@@ -33722,7 +33723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B11" s="41">
         <v>6</v>
       </c>
@@ -33968,7 +33969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B12" s="41">
         <v>7</v>
       </c>
@@ -34214,7 +34215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B13" s="41">
         <v>8</v>
       </c>
@@ -34298,7 +34299,7 @@
         <v>8</v>
       </c>
       <c r="AI13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="16">
         <v>0</v>
@@ -34310,7 +34311,7 @@
         <v>0</v>
       </c>
       <c r="AM13" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="16">
         <v>0</v>
@@ -34383,7 +34384,7 @@
       </c>
       <c r="BK13" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL13" s="16">
         <f t="shared" si="10"/>
@@ -34399,7 +34400,7 @@
       </c>
       <c r="BO13" s="16">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13" s="16">
         <f t="shared" si="13"/>
@@ -34410,7 +34411,7 @@
       </c>
       <c r="BR13" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" s="16">
         <f t="shared" si="15"/>
@@ -34426,7 +34427,7 @@
       </c>
       <c r="BV13" s="16">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW13" s="16">
         <f t="shared" si="18"/>
@@ -34437,7 +34438,7 @@
       </c>
       <c r="BY13" s="16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ13" s="16">
         <f t="shared" si="20"/>
@@ -34453,14 +34454,14 @@
       </c>
       <c r="CC13" s="19">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD13" s="19">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B14" s="41">
         <v>9</v>
       </c>
@@ -34589,13 +34590,13 @@
         <v>0</v>
       </c>
       <c r="AX14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="16">
         <v>0</v>
       </c>
       <c r="AZ14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="16">
         <v>0</v>
@@ -34633,7 +34634,7 @@
       </c>
       <c r="BL14" s="16">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM14" s="16">
         <f t="shared" si="11"/>
@@ -34641,7 +34642,7 @@
       </c>
       <c r="BN14" s="16">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO14" s="16">
         <f t="shared" si="13"/>
@@ -34660,7 +34661,7 @@
       </c>
       <c r="BS14" s="16">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="16">
         <f t="shared" si="16"/>
@@ -34668,7 +34669,7 @@
       </c>
       <c r="BU14" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV14" s="16">
         <f t="shared" si="18"/>
@@ -34687,7 +34688,7 @@
       </c>
       <c r="BZ14" s="16">
         <f t="shared" si="20"/>
-        <v>2.4082246852806923</v>
+        <v>0</v>
       </c>
       <c r="CA14" s="16">
         <f t="shared" si="23"/>
@@ -34695,7 +34696,7 @@
       </c>
       <c r="CB14" s="16">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.4082246852806923</v>
       </c>
       <c r="CC14" s="19">
         <f t="shared" si="22"/>
@@ -34706,7 +34707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B15" s="41">
         <v>10</v>
       </c>
@@ -34952,7 +34953,7 @@
         <v>3.031433133020796</v>
       </c>
     </row>
-    <row r="16" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B16" s="41">
         <v>11</v>
       </c>
@@ -35198,7 +35199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>12</v>
       </c>
@@ -35444,7 +35445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>13</v>
       </c>
@@ -35690,7 +35691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>14</v>
       </c>
@@ -35936,7 +35937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>15</v>
       </c>
@@ -36086,13 +36087,13 @@
         <v>0</v>
       </c>
       <c r="BE20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="16">
         <v>0</v>
       </c>
       <c r="BG20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="19">
         <v>0</v>
@@ -36109,7 +36110,7 @@
       </c>
       <c r="BL20" s="16">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="16">
         <f t="shared" si="11"/>
@@ -36117,7 +36118,7 @@
       </c>
       <c r="BN20" s="16">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO20" s="16">
         <f t="shared" si="13"/>
@@ -36136,7 +36137,7 @@
       </c>
       <c r="BS20" s="16">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="16">
         <f t="shared" si="16"/>
@@ -36144,7 +36145,7 @@
       </c>
       <c r="BU20" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV20" s="16">
         <f t="shared" si="18"/>
@@ -36163,7 +36164,7 @@
       </c>
       <c r="BZ20" s="16">
         <f t="shared" si="20"/>
-        <v>3.031433133020796</v>
+        <v>0</v>
       </c>
       <c r="CA20" s="16">
         <f t="shared" si="23"/>
@@ -36171,7 +36172,7 @@
       </c>
       <c r="CB20" s="16">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3.031433133020796</v>
       </c>
       <c r="CC20" s="19">
         <f t="shared" si="22"/>
@@ -36182,7 +36183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>16</v>
       </c>
@@ -36428,7 +36429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>17</v>
       </c>
@@ -36674,7 +36675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>18</v>
       </c>
@@ -36920,7 +36921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>19</v>
       </c>
@@ -37004,7 +37005,7 @@
         <v>19</v>
       </c>
       <c r="AI24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="16">
         <v>0</v>
@@ -37089,7 +37090,7 @@
       </c>
       <c r="BK24" s="16">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="16">
         <f t="shared" si="10"/>
@@ -37116,7 +37117,7 @@
       </c>
       <c r="BR24" s="16">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="16">
         <f t="shared" si="15"/>
@@ -37143,7 +37144,7 @@
       </c>
       <c r="BY24" s="16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ24" s="16">
         <f t="shared" si="20"/>
@@ -37166,7 +37167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>20</v>
       </c>
@@ -37412,7 +37413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>21</v>
       </c>
@@ -37658,7 +37659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>22</v>
       </c>
@@ -37742,7 +37743,7 @@
         <v>22</v>
       </c>
       <c r="AI27" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="16">
         <v>0</v>
@@ -37754,7 +37755,7 @@
         <v>0</v>
       </c>
       <c r="AM27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27" s="16">
         <v>0</v>
@@ -37827,7 +37828,7 @@
       </c>
       <c r="BK27" s="16">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL27" s="16">
         <f t="shared" si="10"/>
@@ -37843,7 +37844,7 @@
       </c>
       <c r="BO27" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP27" s="16">
         <f t="shared" si="13"/>
@@ -37854,7 +37855,7 @@
       </c>
       <c r="BR27" s="16">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS27" s="16">
         <f t="shared" si="15"/>
@@ -37870,7 +37871,7 @@
       </c>
       <c r="BV27" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW27" s="16">
         <f t="shared" si="18"/>
@@ -37881,7 +37882,7 @@
       </c>
       <c r="BY27" s="16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ27" s="16">
         <f t="shared" si="20"/>
@@ -37897,14 +37898,14 @@
       </c>
       <c r="CC27" s="19">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD27" s="19">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>23</v>
       </c>
@@ -38150,7 +38151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>24</v>
       </c>
@@ -38246,7 +38247,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="16">
         <v>0</v>
@@ -38255,7 +38256,7 @@
         <v>24</v>
       </c>
       <c r="AP29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="16">
         <v>0</v>
@@ -38319,7 +38320,7 @@
       </c>
       <c r="BK29" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29" s="16">
         <f t="shared" si="10"/>
@@ -38335,7 +38336,7 @@
       </c>
       <c r="BO29" s="16">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP29" s="16">
         <f t="shared" si="13"/>
@@ -38346,7 +38347,7 @@
       </c>
       <c r="BR29" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS29" s="16">
         <f t="shared" si="15"/>
@@ -38362,7 +38363,7 @@
       </c>
       <c r="BV29" s="16">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW29" s="16">
         <f t="shared" si="18"/>
@@ -38373,7 +38374,7 @@
       </c>
       <c r="BY29" s="16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.7411011265922482</v>
       </c>
       <c r="BZ29" s="16">
         <f t="shared" si="20"/>
@@ -38389,14 +38390,14 @@
       </c>
       <c r="CC29" s="19">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD29" s="19">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>25</v>
       </c>
@@ -38546,13 +38547,13 @@
         <v>0</v>
       </c>
       <c r="BE30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="16">
         <v>0</v>
       </c>
       <c r="BG30" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH30" s="19">
         <v>0</v>
@@ -38569,7 +38570,7 @@
       </c>
       <c r="BL30" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM30" s="16">
         <f t="shared" si="11"/>
@@ -38577,7 +38578,7 @@
       </c>
       <c r="BN30" s="16">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO30" s="16">
         <f t="shared" si="13"/>
@@ -38596,7 +38597,7 @@
       </c>
       <c r="BS30" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT30" s="16">
         <f t="shared" si="16"/>
@@ -38604,7 +38605,7 @@
       </c>
       <c r="BU30" s="16">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV30" s="16">
         <f t="shared" si="18"/>
@@ -38623,7 +38624,7 @@
       </c>
       <c r="BZ30" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3.4822022531844965</v>
       </c>
       <c r="CA30" s="16">
         <f t="shared" si="23"/>
@@ -38631,7 +38632,7 @@
       </c>
       <c r="CB30" s="16">
         <f t="shared" si="21"/>
-        <v>3.4822022531844965</v>
+        <v>0</v>
       </c>
       <c r="CC30" s="19">
         <f t="shared" si="22"/>
@@ -38642,7 +38643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:82" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -38824,7 +38825,7 @@
       <c r="CB32" s="8"/>
       <c r="CC32" s="9"/>
     </row>
-    <row r="33" spans="2:81" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:81" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="41">
         <v>1</v>
       </c>
@@ -38916,7 +38917,7 @@
       <c r="CB33" s="26"/>
       <c r="CC33" s="27"/>
     </row>
-    <row r="34" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>2</v>
       </c>
@@ -38981,7 +38982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>3</v>
       </c>
@@ -39053,7 +39054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>4</v>
       </c>
@@ -39098,7 +39099,7 @@
       <c r="AE36" s="8"/>
       <c r="AF36" s="9"/>
     </row>
-    <row r="37" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>5</v>
       </c>
@@ -39143,7 +39144,7 @@
       <c r="AE37" s="8"/>
       <c r="AF37" s="9"/>
     </row>
-    <row r="38" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B38" s="32">
         <v>6</v>
       </c>
@@ -39188,7 +39189,7 @@
       <c r="AE38" s="8"/>
       <c r="AF38" s="9"/>
     </row>
-    <row r="39" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -39221,7 +39222,7 @@
       <c r="AE39" s="8"/>
       <c r="AF39" s="9"/>
     </row>
-    <row r="40" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -39254,7 +39255,7 @@
       <c r="AE40" s="8"/>
       <c r="AF40" s="9"/>
     </row>
-    <row r="41" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>19</v>
       </c>
@@ -39289,7 +39290,7 @@
       <c r="AE41" s="8"/>
       <c r="AF41" s="9"/>
     </row>
-    <row r="42" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>2</v>
       </c>
@@ -39326,7 +39327,7 @@
       <c r="AE42" s="8"/>
       <c r="AF42" s="9"/>
     </row>
-    <row r="43" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B43" s="7">
         <v>3</v>
       </c>
@@ -39363,7 +39364,7 @@
       <c r="AE43" s="8"/>
       <c r="AF43" s="9"/>
     </row>
-    <row r="44" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>16</v>
       </c>
@@ -39400,7 +39401,7 @@
       <c r="AE44" s="8"/>
       <c r="AF44" s="9"/>
     </row>
-    <row r="45" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -39433,7 +39434,7 @@
       <c r="AE45" s="8"/>
       <c r="AF45" s="9"/>
     </row>
-    <row r="46" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>20</v>
       </c>
@@ -39468,7 +39469,7 @@
       <c r="AE46" s="8"/>
       <c r="AF46" s="9"/>
     </row>
-    <row r="47" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B47" s="7">
         <v>1</v>
       </c>
@@ -39505,7 +39506,7 @@
       <c r="AE47" s="8"/>
       <c r="AF47" s="9"/>
     </row>
-    <row r="48" spans="2:81" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:81" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B48" s="7">
         <v>3</v>
       </c>
@@ -39545,7 +39546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B49" s="7">
         <v>9</v>
       </c>
@@ -39586,7 +39587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:91" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:91" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="25">
         <v>16</v>
       </c>
@@ -39627,13 +39628,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:91" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:91" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AH51" s="1">
         <f ca="1">SUM(INDIRECT(ADDRESS(6,26+ROWS($A$1:A3))):INDIRECT(ADDRESS(30,26+ROWS($A$1:A3))))</f>
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
@@ -39651,7 +39652,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -39667,7 +39668,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -39679,10 +39680,10 @@
       <c r="I54" s="11"/>
       <c r="J54" s="34"/>
     </row>
-    <row r="55" spans="1:91" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:91" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="25" cm="1">
         <f t="array" ref="B55">SUMPRODUCT(MMULT(BY6:CD30*C6:C30*L6:L30*POWER(F6:F30,O6:O30),I33:I38))</f>
-        <v>7157.045196959908</v>
+        <v>7165.3031686325785</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -39694,8 +39695,8 @@
       <c r="I55" s="26"/>
       <c r="J55" s="27"/>
     </row>
-    <row r="56" spans="1:91" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:91" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:91" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
@@ -40305,7 +40306,7 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8" cm="1">
         <f t="array" aca="1" ref="R63" ca="1">-C33+SUM(INDIRECT(ADDRESS(6,69+ROWS($A$1:A1))):INDIRECT(ADDRESS(30,69+ROWS($A$1:A1)))*$F$6:$F$30)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S63" s="8" t="s">
         <v>21</v>
@@ -40465,7 +40466,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8" cm="1">
         <f t="array" aca="1" ref="R64" ca="1">-C34+SUM(INDIRECT(ADDRESS(6,69+ROWS($A$1:A2))):INDIRECT(ADDRESS(30,69+ROWS($A$1:A2)))*$F$6:$F$30)</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S64" s="8" t="s">
         <v>21</v>
@@ -40492,7 +40493,7 @@
       </c>
       <c r="AB64" s="8" cm="1">
         <f t="array" aca="1" ref="AB64" ca="1">INDIRECT(ADDRESS(5+$B43,62+COLUMNS($A2:A2)))+INDIRECT(ADDRESS(5+$C43,62+COLUMNS($A2:A2)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64" s="8" cm="1">
         <f t="array" aca="1" ref="AC64" ca="1">INDIRECT(ADDRESS(5+$B43,62+COLUMNS($A2:B2)))+INDIRECT(ADDRESS(5+$C43,62+COLUMNS($A2:B2)))</f>
@@ -40508,7 +40509,7 @@
       </c>
       <c r="AF64" s="8" cm="1">
         <f t="array" aca="1" ref="AF64" ca="1">INDIRECT(ADDRESS(5+$B43,62+COLUMNS($A2:E2)))+INDIRECT(ADDRESS(5+$C43,62+COLUMNS($A2:E2)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="8" t="s">
         <v>21</v>
@@ -40785,7 +40786,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8" cm="1">
         <f t="array" aca="1" ref="R66" ca="1">-C36+SUM(INDIRECT(ADDRESS(6,69+ROWS($A$1:A4))):INDIRECT(ADDRESS(30,69+ROWS($A$1:A4)))*$F$6:$F$30)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S66" s="8" t="s">
         <v>21</v>
@@ -42486,7 +42487,7 @@
       <c r="B81" s="7"/>
       <c r="C81" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>21</v>
@@ -42498,7 +42499,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8" cm="1">
         <f t="array" ref="H81">SUM(AA24:AF24*BR24:BW24-R24*BK24:BP24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>25</v>
@@ -42510,7 +42511,7 @@
       <c r="L81" s="8"/>
       <c r="M81" s="8" cm="1">
         <f t="array" ref="M81">SUM(AA24:AF24*BR24:BW24-U24*BK24:BP24)</f>
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="N81" s="8" t="s">
         <v>21</v>
@@ -43065,7 +43066,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8" cm="1">
         <f t="array" ref="H86">SUM(AA29:AF29*BR29:BW29-R29*BK29:BP29)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>25</v>
@@ -43077,7 +43078,7 @@
       <c r="L86" s="8"/>
       <c r="M86" s="8" cm="1">
         <f t="array" ref="M86">SUM(AA29:AF29*BR29:BW29-U29*BK29:BP29)</f>
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="N86" s="8" t="s">
         <v>21</v>
@@ -43179,7 +43180,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8" cm="1">
         <f t="array" ref="H87">SUM(AA30:AF30*BR30:BW30-R30*BK30:BP30)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>25</v>
@@ -43191,7 +43192,7 @@
       <c r="L87" s="8"/>
       <c r="M87" s="8" cm="1">
         <f t="array" ref="M87">SUM(AA30:AF30*BR30:BW30-U30*BK30:BP30)</f>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="N87" s="8" t="s">
         <v>21</v>
@@ -43468,7 +43469,7 @@
       <c r="CL89" s="8"/>
       <c r="CM89" s="8"/>
     </row>
-    <row r="90" spans="1:91" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:91" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="44"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
@@ -45286,18 +45287,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45433,6 +45434,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7F82F3A-971A-4E00-BEE7-5E3A8CB8E835}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9105EF9-87DC-400D-AF3A-CEFE01235C70}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -45444,14 +45453,6 @@
     <ds:schemaRef ds:uri="b79073fe-1e48-4a97-9229-baaa8603d156"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7F82F3A-971A-4E00-BEE7-5E3A8CB8E835}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
